--- a/10.TestReport.xlsx
+++ b/10.TestReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9120"/>
+    <workbookView windowWidth="23040" windowHeight="8675" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestReportSprint1" sheetId="1" r:id="rId1"/>
@@ -181,7 +181,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,13 +231,6 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -384,7 +377,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,18 +429,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,28 +874,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -923,55 +907,58 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -980,10 +967,10 @@
     <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -992,10 +979,10 @@
     <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1004,10 +991,10 @@
     <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1016,10 +1003,10 @@
     <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1028,13 +1015,7 @@
     <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1456,7 +1437,7 @@
   <sheetPr/>
   <dimension ref="B4:AA998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -29461,8 +29442,8 @@
   <sheetPr/>
   <dimension ref="B4:AA996"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.8"/>
@@ -29603,7 +29584,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="13">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="5"/>
@@ -29635,7 +29616,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="5"/>
